--- a/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>AGTX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -884,23 +904,26 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,13 +964,14 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -965,10 +992,13 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -994,10 +1024,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,10 +1102,13 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,13 +1136,16 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1123,10 +1166,13 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,13 +1232,16 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1210,15 +1262,18 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1239,10 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,13 +1456,16 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1413,10 +1486,13 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,13 +1520,16 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1471,44 +1550,50 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2033,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2008,8 +2142,8 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2023,8 +2157,11 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2052,8 +2189,11 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2093,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -2105,13 +2248,16 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2381,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2238,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -2253,10 +2411,13 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,16 +2555,19 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44100</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-44000</v>
       </c>
       <c r="F72" s="3">
         <v>-44000</v>
@@ -2405,7 +2579,7 @@
         <v>-44000</v>
       </c>
       <c r="I72" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="J72" s="3">
         <v>-43900</v>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3">
         <v>-43900</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-43900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,8 +2683,11 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2512,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
@@ -2527,10 +2713,13 @@
         <v>-100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,47 +2747,53 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -2619,10 +2814,13 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>AGTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,66 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +755,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +793,14 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +831,14 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,16 +851,18 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -858,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +923,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -907,23 +946,29 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,20 +1016,22 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -995,10 +1048,16 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,10 +1065,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1027,10 +1086,16 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1108,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,8 +1142,14 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1084,10 +1157,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1105,18 +1178,24 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1139,20 +1218,26 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1169,10 +1254,16 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1294,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,20 +1332,26 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1265,22 +1368,28 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1297,10 +1406,16 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1560,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,20 +1598,26 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1489,10 +1634,16 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,20 +1674,26 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1553,47 +1710,59 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1791,10 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1629,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1652,8 +1825,14 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1863,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1901,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,31 +1939,37 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1780,16 +1977,22 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -1812,8 +2015,14 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,16 +2053,22 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -1876,8 +2091,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2129,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2205,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2243,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,16 +2281,22 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2068,8 +2319,14 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,16 +2355,18 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2128,16 +2389,22 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2145,11 +2412,11 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2160,8 +2427,14 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2192,16 +2465,22 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2224,8 +2503,14 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2239,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
@@ -2251,13 +2536,19 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2579,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,25 +2693,31 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
@@ -2414,10 +2729,16 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M66" s="3">
+        <v>100</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,22 +2899,28 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-45300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-44100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-44000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-44000</v>
       </c>
       <c r="H72" s="3">
         <v>-44000</v>
@@ -2582,16 +2929,22 @@
         <v>-44000</v>
       </c>
       <c r="J72" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="K72" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="L72" s="3">
         <v>-43900</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-43900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,8 +3051,14 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2695,16 +3066,16 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
@@ -2716,10 +3087,16 @@
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,57 +3127,69 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -2817,10 +3206,16 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,16 +3228,18 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2865,8 +3262,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,16 +3452,22 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3057,8 +3490,14 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3510,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3544,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3620,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3178,20 +3637,20 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3199,8 +3658,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3826,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3350,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3373,8 +3864,14 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,16 +3902,22 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3435,6 +3938,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>AGTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,20 +866,21 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -952,23 +972,26 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,23 +1044,24 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1054,10 +1081,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,14 +1095,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1092,10 +1122,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1148,23 +1182,26 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
@@ -1184,10 +1221,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1197,8 +1237,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1224,23 +1264,26 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1260,10 +1303,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,23 +1387,26 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1374,25 +1426,28 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1412,10 +1467,13 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1604,23 +1674,26 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1640,10 +1713,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,23 +1756,26 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1716,53 +1795,59 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,8 +1879,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1802,11 +1889,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1956,8 +2055,8 @@
       <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -1971,8 +2070,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -1983,8 +2082,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1992,11 +2094,11 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,16 +2164,19 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,8 +2410,11 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2296,11 +2422,11 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,19 +2487,20 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2406,8 +2540,8 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2418,8 +2552,8 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2433,8 +2567,11 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2471,19 +2608,22 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -2509,8 +2649,11 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2530,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -2542,13 +2685,16 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,19 +2854,22 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -2720,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -2735,10 +2893,13 @@
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,25 +3076,28 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-44100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-44000</v>
       </c>
       <c r="I72" s="3">
         <v>-44000</v>
@@ -2935,7 +3109,7 @@
         <v>-44000</v>
       </c>
       <c r="L72" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="M72" s="3">
         <v>-43900</v>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3">
         <v>-43900</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>-43900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,20 +3240,23 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>200</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
@@ -3078,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -3093,10 +3279,13 @@
         <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,66 +3322,72 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3212,10 +3407,13 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3241,8 +3440,8 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,20 +3672,23 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3637,8 +3867,8 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -3652,8 +3882,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,20 +4075,23 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,20 +4157,23 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>AGTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,23 +880,24 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -975,23 +995,26 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,26 +1071,27 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1084,10 +1111,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,17 +1125,17 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1125,10 +1155,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1196,15 +1233,15 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
@@ -1224,10 +1261,13 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1240,8 +1280,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1267,26 +1307,29 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1306,10 +1349,13 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,26 +1439,29 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1429,28 +1481,31 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1470,10 +1525,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,26 +1747,29 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1716,10 +1789,13 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,26 +1835,29 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1798,56 +1877,62 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1892,11 +1979,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,31 +2096,34 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2044,13 +2140,16 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2058,8 +2157,8 @@
       <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2073,8 +2172,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2085,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2097,11 +2199,11 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,8 +2536,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2425,11 +2551,11 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,22 +2618,23 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2543,8 +2677,8 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2555,8 +2689,8 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2570,8 +2704,11 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2611,22 +2748,25 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2676,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -2688,13 +2831,16 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,22 +3012,25 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
         <v>300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -2881,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -2896,10 +3054,13 @@
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,28 +3250,31 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-44100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-44000</v>
       </c>
       <c r="J72" s="3">
         <v>-44000</v>
@@ -3112,7 +3286,7 @@
         <v>-44000</v>
       </c>
       <c r="M72" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="N72" s="3">
         <v>-43900</v>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3">
         <v>-43900</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-43900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,23 +3426,26 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
@@ -3267,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -3282,10 +3468,13 @@
         <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,72 +3514,78 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3410,10 +3605,13 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,19 +3627,20 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3684,14 +3901,14 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3870,8 +4100,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -3885,8 +4115,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4087,14 +4333,14 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4169,14 +4421,14 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>AGTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,13 +779,16 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,17 +904,17 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +986,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1098,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,20 +1108,20 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1114,10 +1141,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,20 +1155,20 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1158,10 +1188,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1236,15 +1273,15 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
@@ -1264,10 +1301,13 @@
         <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1283,8 +1323,8 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1310,8 +1350,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,20 +1362,20 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1352,10 +1395,13 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1491,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,20 +1503,20 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1484,10 +1536,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,20 +1550,20 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1528,10 +1583,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1820,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,20 +1832,20 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1792,10 +1865,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1914,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,20 +1926,20 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1880,59 +1959,65 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1982,11 +2069,11 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,17 +2192,20 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2125,8 +2221,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2160,8 +2259,8 @@
       <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2175,8 +2274,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2202,11 +2304,11 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2662,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2554,11 +2680,11 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,25 +2749,26 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2663,22 +2794,25 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2692,8 +2826,8 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,25 +2888,28 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2822,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -2834,13 +2977,16 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,25 +3170,28 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -3042,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -3057,10 +3215,13 @@
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,31 +3424,34 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-45300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-44100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-44000</v>
       </c>
       <c r="K72" s="3">
         <v>-44000</v>
@@ -3289,7 +3463,7 @@
         <v>-44000</v>
       </c>
       <c r="N72" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="O72" s="3">
         <v>-43900</v>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3">
         <v>-43900</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-43900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,26 +3612,29 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>200</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
@@ -3456,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
@@ -3471,10 +3657,13 @@
         <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3706,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,20 +3770,20 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3608,10 +3803,13 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,26 +4106,29 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4103,8 +4333,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -4118,8 +4348,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,26 +4567,29 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4424,14 +4676,14 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>AGTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,16 +785,19 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -829,16 +835,19 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,29 +907,30 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1015,29 +1034,32 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1111,20 +1137,20 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1144,10 +1170,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1158,20 +1187,20 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1191,10 +1220,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1276,15 +1312,15 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
@@ -1304,10 +1340,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1326,8 +1365,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1353,8 +1392,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1365,20 +1407,20 @@
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1398,10 +1440,13 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1506,20 +1557,20 @@
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1539,10 +1590,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1553,20 +1607,20 @@
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1586,10 +1640,13 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1892,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,20 +1907,20 @@
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -1868,10 +1940,13 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1929,20 +2007,20 @@
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -1962,62 +2040,68 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2072,11 +2158,11 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2101,8 +2187,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2204,11 +2299,11 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2224,8 +2319,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2242,19 +2337,22 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2262,8 +2360,8 @@
       <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2277,8 +2375,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2289,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2307,11 +2408,11 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2683,11 +2808,11 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2712,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,28 +2879,29 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2797,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2829,8 +2962,8 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -2844,8 +2977,11 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,28 +3027,31 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -2938,8 +3077,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2968,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -2980,13 +3122,16 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,28 +3327,31 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -3203,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
@@ -3218,10 +3375,13 @@
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,34 +3597,37 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-45300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-44100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-44000</v>
       </c>
       <c r="L72" s="3">
         <v>-44000</v>
@@ -3466,7 +3639,7 @@
         <v>-44000</v>
       </c>
       <c r="O72" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="P72" s="3">
         <v>-43900</v>
@@ -3474,8 +3647,11 @@
       <c r="Q72" s="3">
         <v>-43900</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-43900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,29 +3797,32 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>200</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
@@ -3645,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
         <v>-100</v>
@@ -3660,10 +3845,13 @@
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3773,20 +3967,20 @@
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -3806,10 +4000,13 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4118,20 +4334,20 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -4156,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4336,8 +4565,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -4351,8 +4580,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4579,20 +4824,20 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4679,14 +4930,14 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>AGTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,19 +792,22 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -838,19 +845,22 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,32 +921,33 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,29 +1057,32 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,13 +1151,14 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1140,20 +1167,20 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1173,10 +1200,13 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1190,20 +1220,20 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1223,10 +1253,13 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1315,15 +1352,15 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
@@ -1343,10 +1380,13 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1368,8 +1408,8 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1395,13 +1435,16 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-2000</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
@@ -1410,20 +1453,20 @@
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1443,10 +1486,13 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,13 +1594,16 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-2000</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -1560,20 +1612,20 @@
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1593,15 +1645,18 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-2000</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -1610,20 +1665,20 @@
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1643,10 +1698,13 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,13 +1965,16 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-2000</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -1910,20 +1983,20 @@
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1943,10 +2016,13 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,13 +2071,16 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-2000</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -2010,20 +2089,20 @@
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2043,65 +2122,71 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2161,11 +2248,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2302,11 +2398,11 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2322,8 +2418,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2340,22 +2436,25 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2363,8 +2462,8 @@
       <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2378,8 +2477,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2411,11 +2513,11 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2811,11 +2937,11 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,31 +3010,32 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2965,8 +3099,8 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,31 +3167,34 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3113,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -3125,13 +3268,16 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,31 +3485,34 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -3363,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
@@ -3378,10 +3536,13 @@
         <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,37 +3771,40 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-45300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-44100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-44000</v>
       </c>
       <c r="M72" s="3">
         <v>-44000</v>
@@ -3642,7 +3816,7 @@
         <v>-44000</v>
       </c>
       <c r="P72" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="Q72" s="3">
         <v>-43900</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>-43900</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-43900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,32 +3983,35 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
@@ -3833,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
@@ -3848,10 +4034,13 @@
         <v>-100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,68 +4089,74 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-2000</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
@@ -3970,20 +4165,20 @@
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -4003,10 +4198,13 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4337,20 +4554,20 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4568,8 +4798,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -4583,8 +4813,8 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4827,20 +5073,20 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4933,14 +5185,14 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>AGTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,93 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +803,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,14 +820,14 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -848,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,14 +879,14 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -937,23 +965,23 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,29 +1100,35 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,41 +1204,43 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>2000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>-1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1203,10 +1257,16 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,32 +1274,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-2000</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1256,10 +1316,16 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,16 +1400,22 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1355,18 +1429,18 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
@@ -1383,10 +1457,16 @@
         <v>0</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1411,11 +1491,11 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1438,41 +1518,47 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1489,10 +1575,16 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,41 +1695,47 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1648,43 +1752,49 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1701,10 +1811,16 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,41 +2108,47 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2019,10 +2165,16 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,41 +2226,47 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2125,68 +2283,80 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2399,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2251,14 +2425,14 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2454,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2513,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,13 +2572,19 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -2401,14 +2593,14 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2421,11 +2613,11 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2439,37 +2631,43 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>100</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2480,11 +2678,11 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2492,16 +2690,22 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -2516,14 +2720,14 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2545,8 +2749,14 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2867,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,16 +3162,22 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
@@ -2940,14 +3192,14 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2969,8 +3221,14 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,38 +3271,40 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
@@ -3064,8 +3326,14 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3102,11 +3370,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3117,8 +3385,14 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,38 +3444,44 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
@@ -3223,8 +3503,14 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3259,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -3271,13 +3557,19 @@
         <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,46 +3798,52 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -3539,10 +3855,16 @@
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,43 +4116,49 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-45300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-44100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-44000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-44000</v>
       </c>
       <c r="O72" s="3">
         <v>-44000</v>
@@ -3819,16 +4167,22 @@
         <v>-44000</v>
       </c>
       <c r="Q72" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="R72" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="S72" s="3">
         <v>-43900</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-43900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,46 +4352,52 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
       <c r="N76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
@@ -4037,10 +4409,16 @@
         <v>-100</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,99 +4470,111 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4201,10 +4591,16 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4970,14 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4557,23 +4991,23 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +5029,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4801,11 +5261,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -4816,11 +5276,11 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5076,23 +5568,23 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5606,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5665,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5188,17 +5692,17 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>AGTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +816,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,14 +839,14 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -868,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,14 +904,14 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -927,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,16 +975,18 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -971,23 +998,23 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1009,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1106,29 +1145,35 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,47 +1257,49 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>700</v>
+      </c>
+      <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>-1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1263,10 +1316,16 @@
         <v>0</v>
       </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,38 +1333,38 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
       </c>
       <c r="J18" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1322,10 +1381,16 @@
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,8 +1473,14 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,14 +1488,14 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1435,18 +1508,18 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
@@ -1463,33 +1536,39 @@
         <v>0</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1497,11 +1576,11 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1524,47 +1603,53 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1581,10 +1666,16 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,47 +1798,53 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1758,49 +1861,55 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1817,10 +1926,16 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,47 +2253,53 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2171,10 +2316,16 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,47 +2383,53 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2289,74 +2446,86 @@
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2572,10 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2431,14 +2604,14 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2460,8 +2633,14 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,19 +2763,25 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2599,14 +2790,14 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2619,11 +2810,11 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2637,13 +2828,19 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2651,29 +2848,29 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2684,11 +2881,11 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2696,22 +2893,28 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2726,14 +2929,14 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2755,8 +2958,14 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +3023,14 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2873,8 +3088,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,22 +3413,28 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -3198,14 +3449,14 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -3227,8 +3478,14 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,44 +3532,46 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -3332,8 +3593,14 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3376,11 +3643,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3391,8 +3658,14 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3450,44 +3723,50 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
@@ -3509,8 +3788,14 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3551,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
@@ -3563,13 +3848,19 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,52 +4113,58 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
       <c r="O66" s="3">
         <v>0</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
@@ -3861,10 +4176,16 @@
         <v>100</v>
       </c>
       <c r="U66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
+        <v>100</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,49 +4463,55 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-45300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-44100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-44000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-44000</v>
       </c>
       <c r="Q72" s="3">
         <v>-44000</v>
@@ -4173,16 +4520,22 @@
         <v>-44000</v>
       </c>
       <c r="S72" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="T72" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="U72" s="3">
         <v>-43900</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="W72" s="3">
+        <v>-43900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,52 +4723,58 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
@@ -4415,10 +4786,16 @@
         <v>-100</v>
       </c>
       <c r="U76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,111 +4853,123 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4597,10 +4986,16 @@
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5403,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4997,23 +5430,23 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -5035,8 +5468,14 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5558,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5267,11 +5726,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -5282,11 +5741,11 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5294,8 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +6038,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5562,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5574,23 +6065,23 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +6103,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +6168,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5698,17 +6201,17 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5728,6 +6231,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>AGTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,108 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +830,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -845,14 +859,14 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -887,8 +901,14 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,14 +930,14 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -952,8 +972,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -986,13 +1014,13 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1004,23 +1032,23 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1151,29 +1191,35 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1311,10 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1271,41 +1325,41 @@
         <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>-1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1322,10 +1376,16 @@
         <v>0</v>
       </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
         <v>42700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1336,41 +1396,41 @@
         <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1387,10 +1447,16 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1547,14 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1491,17 +1565,17 @@
         <v>-400</v>
       </c>
       <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1514,18 +1588,18 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
@@ -1542,10 +1616,16 @@
         <v>0</v>
       </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1555,26 +1635,26 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1582,11 +1662,11 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1609,8 +1689,14 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1621,41 +1707,41 @@
         <v>-400</v>
       </c>
       <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1672,10 +1758,16 @@
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1902,14 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1816,41 +1920,41 @@
         <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1867,10 +1971,16 @@
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1881,41 +1991,41 @@
         <v>-400</v>
       </c>
       <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1932,10 +2042,16 @@
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2399,14 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2271,41 +2417,41 @@
         <v>-400</v>
       </c>
       <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2322,10 +2468,16 @@
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2541,14 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2401,41 +2559,41 @@
         <v>-400</v>
       </c>
       <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2452,80 +2610,92 @@
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2746,10 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2610,14 +2784,14 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2813,14 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2884,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2955,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2783,11 +2975,11 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -2796,14 +2988,14 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2816,11 +3008,11 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2834,49 +3026,55 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2887,11 +3085,11 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -2899,28 +3097,34 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -2935,14 +3139,14 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -2964,8 +3168,14 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3239,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3310,14 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,28 +3665,34 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -3455,14 +3707,14 @@
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
+        <v>100</v>
+      </c>
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
@@ -3484,8 +3736,14 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,50 +3794,52 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
@@ -3599,31 +3861,37 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3649,11 +3917,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
@@ -3664,8 +3932,14 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3729,50 +4003,56 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
@@ -3794,8 +4074,14 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3842,10 +4128,10 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
@@ -3854,13 +4140,19 @@
         <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,58 +4429,64 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
       <c r="Q66" s="3">
         <v>0</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T66" s="3">
         <v>100</v>
@@ -4182,10 +4498,16 @@
         <v>100</v>
       </c>
       <c r="W66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,55 +4811,61 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-45300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-44100</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-44000</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-44000</v>
       </c>
       <c r="S72" s="3">
         <v>-44000</v>
@@ -4526,16 +4874,22 @@
         <v>-44000</v>
       </c>
       <c r="U72" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="V72" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="W72" s="3">
         <v>-43900</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-43900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,58 +5095,64 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>200</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
       <c r="Q76" s="3">
         <v>0</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T76" s="3">
         <v>-100</v>
@@ -4792,10 +5164,16 @@
         <v>-100</v>
       </c>
       <c r="W76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5237,90 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43251</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4941,41 +5331,41 @@
         <v>-400</v>
       </c>
       <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -4992,10 +5382,16 @@
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-42700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,13 +5837,19 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -5436,23 +5870,23 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -5474,8 +5908,14 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6148,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5732,11 +6192,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
@@ -5747,11 +6207,11 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,13 +6530,19 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -6059,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -6071,23 +6563,23 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6109,8 +6601,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6120,20 +6618,20 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -6174,8 +6672,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6207,17 +6711,17 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6741,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>
